--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3479,4 +3480,1922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>898.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>27.5959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9403</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0486</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0486</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9932</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7534</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7218</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6344</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5398,4 +5399,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5407,7 +5408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5418,17 +5419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5438,14 +5459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.56</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5454,14 +5497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.76</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5470,13 +5535,1579 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8549</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7897</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>39</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>15.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7022,7 +7023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7033,17 +7034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7053,14 +7074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.99</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7069,14 +7112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.56</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7085,14 +7150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.76</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7101,13 +7188,1861 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1998</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8333</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8164</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7424</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6988</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4456</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8941,7 +8942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8952,17 +8953,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8972,14 +8993,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.72</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8988,14 +9031,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.99</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9004,14 +9069,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.56</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9020,14 +9107,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.76</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9036,13 +9145,1763 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7283</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0777</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7464</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>183001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华全球核心优选(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-0.0002</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>27.27</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>31.72</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>28.99</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>64.56</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>27.76</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.19</v>
       </c>
     </row>
@@ -583,6 +600,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2424,7 +3485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4342,7 +5403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5956,7 +7017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7874,7 +8935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9374,7 +10435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03968-招商银行.xlsx
+++ b/数据整理/stocks/港股/03968-招商银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>16.38</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>27.27</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>31.72</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>28.99</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>64.56</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>27.76</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.19</v>
       </c>
     </row>
@@ -600,6 +617,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3967</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3967</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1935</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517900</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证银行AH价格优选ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>017627</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3485,7 +5228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5403,7 +7146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7017,7 +8760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8935,7 +10678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10435,7 +12178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
